--- a/STOXX_600.xlsx
+++ b/STOXX_600.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabian/Library/Mobile Documents/com~apple~CloudDocs/Uni/Master/2. Semester/MasterLab/STOXX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20E29C9-1946-3347-B83C-4F3791E341BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5D8325-CBE6-9745-A16C-9C9EE10FC599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_Material" sheetId="2" r:id="rId1"/>
     <sheet name="R_Export" sheetId="4" r:id="rId2"/>
+    <sheet name="R_Export_Rics" sheetId="6" r:id="rId3"/>
+    <sheet name="Tabelle1" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">R_Export!$A$1:$D$1</definedName>
@@ -88,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="637">
   <si>
     <t>STOXX Europe 600 EUR Price Index | Price History                                          27-Mar-2022 16:47</t>
   </si>
@@ -196,6 +198,1809 @@
   </si>
   <si>
     <t>STOXX_return</t>
+  </si>
+  <si>
+    <t>RIC</t>
+  </si>
+  <si>
+    <t>TRELb.ST</t>
+  </si>
+  <si>
+    <t>RR.L</t>
+  </si>
+  <si>
+    <t>HSV.L</t>
+  </si>
+  <si>
+    <t>DRX.L</t>
+  </si>
+  <si>
+    <t>GFCP.PA</t>
+  </si>
+  <si>
+    <t>MRL.MC</t>
+  </si>
+  <si>
+    <t>ALKb.CO</t>
+  </si>
+  <si>
+    <t>GETIb.ST</t>
+  </si>
+  <si>
+    <t>SSABb.ST</t>
+  </si>
+  <si>
+    <t>URW.AS</t>
+  </si>
+  <si>
+    <t>LOIM.PA</t>
+  </si>
+  <si>
+    <t>IETB.BR</t>
+  </si>
+  <si>
+    <t>BILL.ST</t>
+  </si>
+  <si>
+    <t>BOSSn.DE</t>
+  </si>
+  <si>
+    <t>MOWI.OL</t>
+  </si>
+  <si>
+    <t>TRN.MI</t>
+  </si>
+  <si>
+    <t>AM.PA</t>
+  </si>
+  <si>
+    <t>CPRI.MI</t>
+  </si>
+  <si>
+    <t>NTGY.MC</t>
+  </si>
+  <si>
+    <t>OSBO.L</t>
+  </si>
+  <si>
+    <t>ORSTED.CO</t>
+  </si>
+  <si>
+    <t>MT.AS</t>
+  </si>
+  <si>
+    <t>DLN.L</t>
+  </si>
+  <si>
+    <t>RHMG.DE</t>
+  </si>
+  <si>
+    <t>CNA.L</t>
+  </si>
+  <si>
+    <t>OMVV.VI</t>
+  </si>
+  <si>
+    <t>BLND.L</t>
+  </si>
+  <si>
+    <t>TEL2b.ST</t>
+  </si>
+  <si>
+    <t>CAST.ST</t>
+  </si>
+  <si>
+    <t>ADP.PA</t>
+  </si>
+  <si>
+    <t>SAFE.L</t>
+  </si>
+  <si>
+    <t>NESTE.HE</t>
+  </si>
+  <si>
+    <t>FMEG.DE</t>
+  </si>
+  <si>
+    <t>SCHA.OL</t>
+  </si>
+  <si>
+    <t>DOCS.L</t>
+  </si>
+  <si>
+    <t>ADEA.OL</t>
+  </si>
+  <si>
+    <t>PSON.L</t>
+  </si>
+  <si>
+    <t>TENR.MI</t>
+  </si>
+  <si>
+    <t>LAND.L</t>
+  </si>
+  <si>
+    <t>BYG.L</t>
+  </si>
+  <si>
+    <t>REY.MI</t>
+  </si>
+  <si>
+    <t>PUBP.PA</t>
+  </si>
+  <si>
+    <t>IFXGn.DE</t>
+  </si>
+  <si>
+    <t>CVO.PA</t>
+  </si>
+  <si>
+    <t>HMb.ST</t>
+  </si>
+  <si>
+    <t>COL.MC</t>
+  </si>
+  <si>
+    <t>AMS.S</t>
+  </si>
+  <si>
+    <t>RTO.L</t>
+  </si>
+  <si>
+    <t>SDFGn.DE</t>
+  </si>
+  <si>
+    <t>GALP.LS</t>
+  </si>
+  <si>
+    <t>AOO.BR</t>
+  </si>
+  <si>
+    <t>IMB.L</t>
+  </si>
+  <si>
+    <t>ABNd.AS</t>
+  </si>
+  <si>
+    <t>DB1Gn.DE</t>
+  </si>
+  <si>
+    <t>HRA.MI</t>
+  </si>
+  <si>
+    <t>SGRO.L</t>
+  </si>
+  <si>
+    <t>LMPL.L</t>
+  </si>
+  <si>
+    <t>ELI.BR</t>
+  </si>
+  <si>
+    <t>PHP.L</t>
+  </si>
+  <si>
+    <t>SRG.MI</t>
+  </si>
+  <si>
+    <t>TTEF.PA</t>
+  </si>
+  <si>
+    <t>DUFN.S</t>
+  </si>
+  <si>
+    <t>TCFP.PA</t>
+  </si>
+  <si>
+    <t>NAFG.DE</t>
+  </si>
+  <si>
+    <t>SESFd.PA</t>
+  </si>
+  <si>
+    <t>STDM.PA</t>
+  </si>
+  <si>
+    <t>COFB.BR</t>
+  </si>
+  <si>
+    <t>AMPF.MI</t>
+  </si>
+  <si>
+    <t>CLNX.MC</t>
+  </si>
+  <si>
+    <t>BBOXT.L</t>
+  </si>
+  <si>
+    <t>GASI.MI</t>
+  </si>
+  <si>
+    <t>DGE.L</t>
+  </si>
+  <si>
+    <t>III.L</t>
+  </si>
+  <si>
+    <t>BAYGn.DE</t>
+  </si>
+  <si>
+    <t>TLIT.MI</t>
+  </si>
+  <si>
+    <t>WPP.L</t>
+  </si>
+  <si>
+    <t>ORK.OL</t>
+  </si>
+  <si>
+    <t>BESI.AS</t>
+  </si>
+  <si>
+    <t>JD.L</t>
+  </si>
+  <si>
+    <t>FREG.DE</t>
+  </si>
+  <si>
+    <t>NXT.L</t>
+  </si>
+  <si>
+    <t>PROX.BR</t>
+  </si>
+  <si>
+    <t>SECTb.ST</t>
+  </si>
+  <si>
+    <t>HRMS.PA</t>
+  </si>
+  <si>
+    <t>IG.MI</t>
+  </si>
+  <si>
+    <t>AEGN.AS</t>
+  </si>
+  <si>
+    <t>UTG.L</t>
+  </si>
+  <si>
+    <t>EQNR.OL</t>
+  </si>
+  <si>
+    <t>KOG.OL</t>
+  </si>
+  <si>
+    <t>IGG.L</t>
+  </si>
+  <si>
+    <t>MTXGn.DE</t>
+  </si>
+  <si>
+    <t>SHEL.AS</t>
+  </si>
+  <si>
+    <t>BOL.ST</t>
+  </si>
+  <si>
+    <t>ACKB.BR</t>
+  </si>
+  <si>
+    <t>LDOF.MI</t>
+  </si>
+  <si>
+    <t>WDPP.BR</t>
+  </si>
+  <si>
+    <t>INF.L</t>
+  </si>
+  <si>
+    <t>TIGOsdb.ST</t>
+  </si>
+  <si>
+    <t>REP.MC</t>
+  </si>
+  <si>
+    <t>UMG.AS</t>
+  </si>
+  <si>
+    <t>HELN.S</t>
+  </si>
+  <si>
+    <t>RYA.I</t>
+  </si>
+  <si>
+    <t>KPN.AS</t>
+  </si>
+  <si>
+    <t>SBBb.ST</t>
+  </si>
+  <si>
+    <t>PSPN.S</t>
+  </si>
+  <si>
+    <t>EZJ.L</t>
+  </si>
+  <si>
+    <t>BAKKA.OL</t>
+  </si>
+  <si>
+    <t>ENAG.MC</t>
+  </si>
+  <si>
+    <t>SOPR.PA</t>
+  </si>
+  <si>
+    <t>EURA.PA</t>
+  </si>
+  <si>
+    <t>SFOR.L</t>
+  </si>
+  <si>
+    <t>PSMGn.DE</t>
+  </si>
+  <si>
+    <t>EXOR.MI</t>
+  </si>
+  <si>
+    <t>SALM.OL</t>
+  </si>
+  <si>
+    <t>CAPP.PA</t>
+  </si>
+  <si>
+    <t>AENA.MC</t>
+  </si>
+  <si>
+    <t>ATL.MI</t>
+  </si>
+  <si>
+    <t>DNP.WA</t>
+  </si>
+  <si>
+    <t>ABI.BR</t>
+  </si>
+  <si>
+    <t>UMI.BR</t>
+  </si>
+  <si>
+    <t>NOD.OL</t>
+  </si>
+  <si>
+    <t>NETCG.CO</t>
+  </si>
+  <si>
+    <t>HSX.L</t>
+  </si>
+  <si>
+    <t>HOLMb.ST</t>
+  </si>
+  <si>
+    <t>ADYEN.AS</t>
+  </si>
+  <si>
+    <t>INVP.L</t>
+  </si>
+  <si>
+    <t>COLR.BR</t>
+  </si>
+  <si>
+    <t>FABG.ST</t>
+  </si>
+  <si>
+    <t>BAWG.VI</t>
+  </si>
+  <si>
+    <t>ICAG.L</t>
+  </si>
+  <si>
+    <t>BEIG.DE</t>
+  </si>
+  <si>
+    <t>BATS.L</t>
+  </si>
+  <si>
+    <t>RIO.L</t>
+  </si>
+  <si>
+    <t>LISN.S</t>
+  </si>
+  <si>
+    <t>CARR.PA</t>
+  </si>
+  <si>
+    <t>GLEN.L</t>
+  </si>
+  <si>
+    <t>FHZN.S</t>
+  </si>
+  <si>
+    <t>AT1.DE</t>
+  </si>
+  <si>
+    <t>MNG.L</t>
+  </si>
+  <si>
+    <t>TATE.L</t>
+  </si>
+  <si>
+    <t>ENI.MI</t>
+  </si>
+  <si>
+    <t>ITPG.MI</t>
+  </si>
+  <si>
+    <t>IHG.L</t>
+  </si>
+  <si>
+    <t>DTEGn.DE</t>
+  </si>
+  <si>
+    <t>SATG_p.DE</t>
+  </si>
+  <si>
+    <t>SPSN.S</t>
+  </si>
+  <si>
+    <t>SEBa.ST</t>
+  </si>
+  <si>
+    <t>ORP.PA</t>
+  </si>
+  <si>
+    <t>DEMANT.CO</t>
+  </si>
+  <si>
+    <t>DBKGn.DE</t>
+  </si>
+  <si>
+    <t>VIV.PA</t>
+  </si>
+  <si>
+    <t>ADSGn.DE</t>
+  </si>
+  <si>
+    <t>SAGAb.ST</t>
+  </si>
+  <si>
+    <t>LUNE.ST</t>
+  </si>
+  <si>
+    <t>EONGn.DE</t>
+  </si>
+  <si>
+    <t>AAL.L</t>
+  </si>
+  <si>
+    <t>KGF.L</t>
+  </si>
+  <si>
+    <t>ABF.L</t>
+  </si>
+  <si>
+    <t>ENEI.MI</t>
+  </si>
+  <si>
+    <t>SKAb.ST</t>
+  </si>
+  <si>
+    <t>MKS.L</t>
+  </si>
+  <si>
+    <t>SOBIV.ST</t>
+  </si>
+  <si>
+    <t>PRTP.PA</t>
+  </si>
+  <si>
+    <t>TEGG.DE</t>
+  </si>
+  <si>
+    <t>CTEC.L</t>
+  </si>
+  <si>
+    <t>TEF.MC</t>
+  </si>
+  <si>
+    <t>WLSNc.AS</t>
+  </si>
+  <si>
+    <t>WTB.L</t>
+  </si>
+  <si>
+    <t>MONC.MI</t>
+  </si>
+  <si>
+    <t>BAES.L</t>
+  </si>
+  <si>
+    <t>ORAN.PA</t>
+  </si>
+  <si>
+    <t>LUNDb.ST</t>
+  </si>
+  <si>
+    <t>ANA.MC</t>
+  </si>
+  <si>
+    <t>UBSG.S</t>
+  </si>
+  <si>
+    <t>DIOR.PA</t>
+  </si>
+  <si>
+    <t>SRENH.S</t>
+  </si>
+  <si>
+    <t>ASML.AS</t>
+  </si>
+  <si>
+    <t>STM.MI</t>
+  </si>
+  <si>
+    <t>ITX.MC</t>
+  </si>
+  <si>
+    <t>BRBY.L</t>
+  </si>
+  <si>
+    <t>TELIA.ST</t>
+  </si>
+  <si>
+    <t>PSHG_p.DE</t>
+  </si>
+  <si>
+    <t>RCOP.PA</t>
+  </si>
+  <si>
+    <t>INDT.ST</t>
+  </si>
+  <si>
+    <t>CRDA.L</t>
+  </si>
+  <si>
+    <t>GBLB.BR</t>
+  </si>
+  <si>
+    <t>NENTb.ST</t>
+  </si>
+  <si>
+    <t>BP.L</t>
+  </si>
+  <si>
+    <t>STMN.S</t>
+  </si>
+  <si>
+    <t>SWEDa.ST</t>
+  </si>
+  <si>
+    <t>SFZN.S</t>
+  </si>
+  <si>
+    <t>MUVGn.DE</t>
+  </si>
+  <si>
+    <t>LINI.DE</t>
+  </si>
+  <si>
+    <t>NG.L</t>
+  </si>
+  <si>
+    <t>VIFN.S</t>
+  </si>
+  <si>
+    <t>ULE.L</t>
+  </si>
+  <si>
+    <t>A2.MI</t>
+  </si>
+  <si>
+    <t>BAMI.MI</t>
+  </si>
+  <si>
+    <t>RAND.AS</t>
+  </si>
+  <si>
+    <t>LIFCOb.ST</t>
+  </si>
+  <si>
+    <t>BALDb.ST</t>
+  </si>
+  <si>
+    <t>ENT.L</t>
+  </si>
+  <si>
+    <t>KOJAMO.HE</t>
+  </si>
+  <si>
+    <t>RENA.PA</t>
+  </si>
+  <si>
+    <t>BT.L</t>
+  </si>
+  <si>
+    <t>BVIC.L</t>
+  </si>
+  <si>
+    <t>VMUK.L</t>
+  </si>
+  <si>
+    <t>ROG.S</t>
+  </si>
+  <si>
+    <t>DCC.L</t>
+  </si>
+  <si>
+    <t>MWDP.PA</t>
+  </si>
+  <si>
+    <t>COLOb.CO</t>
+  </si>
+  <si>
+    <t>LOGN.S</t>
+  </si>
+  <si>
+    <t>WIHL.ST</t>
+  </si>
+  <si>
+    <t>SOIT.PA</t>
+  </si>
+  <si>
+    <t>SGE.L</t>
+  </si>
+  <si>
+    <t>ALLN.S</t>
+  </si>
+  <si>
+    <t>KINVb.ST</t>
+  </si>
+  <si>
+    <t>ULVR.L</t>
+  </si>
+  <si>
+    <t>RBIV.VI</t>
+  </si>
+  <si>
+    <t>PERP.PA</t>
+  </si>
+  <si>
+    <t>AV.L</t>
+  </si>
+  <si>
+    <t>SAMPO.HE</t>
+  </si>
+  <si>
+    <t>LHAG.DE</t>
+  </si>
+  <si>
+    <t>AKZO.AS</t>
+  </si>
+  <si>
+    <t>REE.MC</t>
+  </si>
+  <si>
+    <t>EMG.L</t>
+  </si>
+  <si>
+    <t>EDPR.LS</t>
+  </si>
+  <si>
+    <t>TUIT.L</t>
+  </si>
+  <si>
+    <t>RUBF.PA</t>
+  </si>
+  <si>
+    <t>SCHP.S</t>
+  </si>
+  <si>
+    <t>SAPG.DE</t>
+  </si>
+  <si>
+    <t>BALN.S</t>
+  </si>
+  <si>
+    <t>BOUY.PA</t>
+  </si>
+  <si>
+    <t>KBC.BR</t>
+  </si>
+  <si>
+    <t>AUTO.OL</t>
+  </si>
+  <si>
+    <t>G24n.DE</t>
+  </si>
+  <si>
+    <t>GRLS.MC</t>
+  </si>
+  <si>
+    <t>STAN.L</t>
+  </si>
+  <si>
+    <t>SHBa.ST</t>
+  </si>
+  <si>
+    <t>VOD.L</t>
+  </si>
+  <si>
+    <t>SCOR.PA</t>
+  </si>
+  <si>
+    <t>BARN.S</t>
+  </si>
+  <si>
+    <t>AKRBP.OL</t>
+  </si>
+  <si>
+    <t>SPIE.PA</t>
+  </si>
+  <si>
+    <t>UBIP.PA</t>
+  </si>
+  <si>
+    <t>SY1G.DE</t>
+  </si>
+  <si>
+    <t>ELISA.HE</t>
+  </si>
+  <si>
+    <t>FOUG.PA</t>
+  </si>
+  <si>
+    <t>BUCN.S</t>
+  </si>
+  <si>
+    <t>SVT.L</t>
+  </si>
+  <si>
+    <t>CFR.S</t>
+  </si>
+  <si>
+    <t>ALVG.DE</t>
+  </si>
+  <si>
+    <t>AD.AS</t>
+  </si>
+  <si>
+    <t>NOVN.S</t>
+  </si>
+  <si>
+    <t>GMAB.CO</t>
+  </si>
+  <si>
+    <t>KINDsdb.ST</t>
+  </si>
+  <si>
+    <t>LEGn.DE</t>
+  </si>
+  <si>
+    <t>GALE.S</t>
+  </si>
+  <si>
+    <t>CCH.L</t>
+  </si>
+  <si>
+    <t>ERST.VI</t>
+  </si>
+  <si>
+    <t>BNZL.L</t>
+  </si>
+  <si>
+    <t>EUFI.PA</t>
+  </si>
+  <si>
+    <t>BNRGn.DE</t>
+  </si>
+  <si>
+    <t>JDEP.AS</t>
+  </si>
+  <si>
+    <t>CABK.MC</t>
+  </si>
+  <si>
+    <t>SIGNC.S</t>
+  </si>
+  <si>
+    <t>TSCO.L</t>
+  </si>
+  <si>
+    <t>SCMN.S</t>
+  </si>
+  <si>
+    <t>NN.AS</t>
+  </si>
+  <si>
+    <t>FDJ.PA</t>
+  </si>
+  <si>
+    <t>ZURN.S</t>
+  </si>
+  <si>
+    <t>NEXII.MI</t>
+  </si>
+  <si>
+    <t>SGEF.PA</t>
+  </si>
+  <si>
+    <t>AIRP.PA</t>
+  </si>
+  <si>
+    <t>BOLL.PA</t>
+  </si>
+  <si>
+    <t>LVMH.PA</t>
+  </si>
+  <si>
+    <t>EDEN.PA</t>
+  </si>
+  <si>
+    <t>CBKG.DE</t>
+  </si>
+  <si>
+    <t>STERV.HE</t>
+  </si>
+  <si>
+    <t>PHG.AS</t>
+  </si>
+  <si>
+    <t>AXAF.PA</t>
+  </si>
+  <si>
+    <t>ISS.CO</t>
+  </si>
+  <si>
+    <t>CRDI.MI</t>
+  </si>
+  <si>
+    <t>CBRO.L</t>
+  </si>
+  <si>
+    <t>ACS.MC</t>
+  </si>
+  <si>
+    <t>ALIFb.ST</t>
+  </si>
+  <si>
+    <t>STLA.MI</t>
+  </si>
+  <si>
+    <t>HEXAb.ST</t>
+  </si>
+  <si>
+    <t>LTEN.PA</t>
+  </si>
+  <si>
+    <t>MBGn.DE</t>
+  </si>
+  <si>
+    <t>RXL.PA</t>
+  </si>
+  <si>
+    <t>MGGT.L</t>
+  </si>
+  <si>
+    <t>AIR.PA</t>
+  </si>
+  <si>
+    <t>PKO.WA</t>
+  </si>
+  <si>
+    <t>PNDORA.CO</t>
+  </si>
+  <si>
+    <t>SBRY.L</t>
+  </si>
+  <si>
+    <t>AVST.L</t>
+  </si>
+  <si>
+    <t>ISP.MI</t>
+  </si>
+  <si>
+    <t>JMT.LS</t>
+  </si>
+  <si>
+    <t>CNPP.PA</t>
+  </si>
+  <si>
+    <t>MICP.PA</t>
+  </si>
+  <si>
+    <t>GRG.L</t>
+  </si>
+  <si>
+    <t>AZN.L</t>
+  </si>
+  <si>
+    <t>HNRGn.DE</t>
+  </si>
+  <si>
+    <t>SCTS.L</t>
+  </si>
+  <si>
+    <t>ERICb.ST</t>
+  </si>
+  <si>
+    <t>CSGN.S</t>
+  </si>
+  <si>
+    <t>NOKIA.HE</t>
+  </si>
+  <si>
+    <t>LSEG.L</t>
+  </si>
+  <si>
+    <t>SKG.I</t>
+  </si>
+  <si>
+    <t>ACCP.PA</t>
+  </si>
+  <si>
+    <t>SSE.L</t>
+  </si>
+  <si>
+    <t>PUMG.DE</t>
+  </si>
+  <si>
+    <t>EDP.LS</t>
+  </si>
+  <si>
+    <t>CAGR.PA</t>
+  </si>
+  <si>
+    <t>LATOb.ST</t>
+  </si>
+  <si>
+    <t>EVKn.DE</t>
+  </si>
+  <si>
+    <t>SWMA.ST</t>
+  </si>
+  <si>
+    <t>UU.L</t>
+  </si>
+  <si>
+    <t>ENX.PA</t>
+  </si>
+  <si>
+    <t>BC8G.DE</t>
+  </si>
+  <si>
+    <t>TECN.S</t>
+  </si>
+  <si>
+    <t>WOSG.L</t>
+  </si>
+  <si>
+    <t>QIA.DE</t>
+  </si>
+  <si>
+    <t>LONN.S</t>
+  </si>
+  <si>
+    <t>RECI.MI</t>
+  </si>
+  <si>
+    <t>DKSH.S</t>
+  </si>
+  <si>
+    <t>HEIO.AS</t>
+  </si>
+  <si>
+    <t>SASY.PA</t>
+  </si>
+  <si>
+    <t>IBE.MC</t>
+  </si>
+  <si>
+    <t>ENGIE.PA</t>
+  </si>
+  <si>
+    <t>SOLB.BR</t>
+  </si>
+  <si>
+    <t>SAF.PA</t>
+  </si>
+  <si>
+    <t>BBVA.MC</t>
+  </si>
+  <si>
+    <t>IMCD.AS</t>
+  </si>
+  <si>
+    <t>ELUXb.ST</t>
+  </si>
+  <si>
+    <t>SCAb.ST</t>
+  </si>
+  <si>
+    <t>EVOG.ST</t>
+  </si>
+  <si>
+    <t>ADEN.S</t>
+  </si>
+  <si>
+    <t>UHR.S</t>
+  </si>
+  <si>
+    <t>GSK.L</t>
+  </si>
+  <si>
+    <t>ALCC.S</t>
+  </si>
+  <si>
+    <t>ARDS.AS</t>
+  </si>
+  <si>
+    <t>ANDR.VI</t>
+  </si>
+  <si>
+    <t>HSBA.L</t>
+  </si>
+  <si>
+    <t>OREP.PA</t>
+  </si>
+  <si>
+    <t>HEIN.AS</t>
+  </si>
+  <si>
+    <t>UPM.HE</t>
+  </si>
+  <si>
+    <t>ELE.MC</t>
+  </si>
+  <si>
+    <t>TKAG.DE</t>
+  </si>
+  <si>
+    <t>ALLFG.AS</t>
+  </si>
+  <si>
+    <t>PGHN.S</t>
+  </si>
+  <si>
+    <t>ICP.L</t>
+  </si>
+  <si>
+    <t>TRYG.CO</t>
+  </si>
+  <si>
+    <t>INVEb.ST</t>
+  </si>
+  <si>
+    <t>VITR.ST</t>
+  </si>
+  <si>
+    <t>SAN.MC</t>
+  </si>
+  <si>
+    <t>HUH1V.HE</t>
+  </si>
+  <si>
+    <t>MDBI.MI</t>
+  </si>
+  <si>
+    <t>INWT.MI</t>
+  </si>
+  <si>
+    <t>DLGD.L</t>
+  </si>
+  <si>
+    <t>SHLG.DE</t>
+  </si>
+  <si>
+    <t>RWEG.DE</t>
+  </si>
+  <si>
+    <t>YAR.OL</t>
+  </si>
+  <si>
+    <t>TEL.OL</t>
+  </si>
+  <si>
+    <t>SWECb.ST</t>
+  </si>
+  <si>
+    <t>RMG.L</t>
+  </si>
+  <si>
+    <t>VNAn.DE</t>
+  </si>
+  <si>
+    <t>AGES.BR</t>
+  </si>
+  <si>
+    <t>CDR.WA</t>
+  </si>
+  <si>
+    <t>DANSKE.CO</t>
+  </si>
+  <si>
+    <t>AMA.MC</t>
+  </si>
+  <si>
+    <t>TEPRF.PA</t>
+  </si>
+  <si>
+    <t>SN.L</t>
+  </si>
+  <si>
+    <t>ASMI.AS</t>
+  </si>
+  <si>
+    <t>BKT.MC</t>
+  </si>
+  <si>
+    <t>INCH.L</t>
+  </si>
+  <si>
+    <t>AAK.ST</t>
+  </si>
+  <si>
+    <t>ROR.L</t>
+  </si>
+  <si>
+    <t>SOF.BR</t>
+  </si>
+  <si>
+    <t>INDUa.ST</t>
+  </si>
+  <si>
+    <t>HRGV.L</t>
+  </si>
+  <si>
+    <t>TYRES.HE</t>
+  </si>
+  <si>
+    <t>SLHN.S</t>
+  </si>
+  <si>
+    <t>STB.OL</t>
+  </si>
+  <si>
+    <t>BVI.PA</t>
+  </si>
+  <si>
+    <t>DSV.CO</t>
+  </si>
+  <si>
+    <t>GETP.PA</t>
+  </si>
+  <si>
+    <t>HLMA.L</t>
+  </si>
+  <si>
+    <t>HOLN.S</t>
+  </si>
+  <si>
+    <t>FNTGn.DE</t>
+  </si>
+  <si>
+    <t>CNHI.MI</t>
+  </si>
+  <si>
+    <t>WIZZ.L</t>
+  </si>
+  <si>
+    <t>PNN.L</t>
+  </si>
+  <si>
+    <t>CONG.DE</t>
+  </si>
+  <si>
+    <t>BEAN.S</t>
+  </si>
+  <si>
+    <t>VOWG_p.DE</t>
+  </si>
+  <si>
+    <t>SPX.L</t>
+  </si>
+  <si>
+    <t>ABDN.L</t>
+  </si>
+  <si>
+    <t>RMV.L</t>
+  </si>
+  <si>
+    <t>IWG.L</t>
+  </si>
+  <si>
+    <t>NESN.S</t>
+  </si>
+  <si>
+    <t>UCB.BR</t>
+  </si>
+  <si>
+    <t>BARC.L</t>
+  </si>
+  <si>
+    <t>AKE.PA</t>
+  </si>
+  <si>
+    <t>STORb.ST</t>
+  </si>
+  <si>
+    <t>REL.L</t>
+  </si>
+  <si>
+    <t>INGA.AS</t>
+  </si>
+  <si>
+    <t>SEBF.PA</t>
+  </si>
+  <si>
+    <t>FORTUM.HE</t>
+  </si>
+  <si>
+    <t>ECM.L</t>
+  </si>
+  <si>
+    <t>BIRG.I</t>
+  </si>
+  <si>
+    <t>SECUb.ST</t>
+  </si>
+  <si>
+    <t>FUTR.L</t>
+  </si>
+  <si>
+    <t>RBREW.CO</t>
+  </si>
+  <si>
+    <t>MNDI.L</t>
+  </si>
+  <si>
+    <t>BANB.S</t>
+  </si>
+  <si>
+    <t>ORNBV.HE</t>
+  </si>
+  <si>
+    <t>DAST.PA</t>
+  </si>
+  <si>
+    <t>RACE.MI</t>
+  </si>
+  <si>
+    <t>WBSV.VI</t>
+  </si>
+  <si>
+    <t>CLN.S</t>
+  </si>
+  <si>
+    <t>VWS.CO</t>
+  </si>
+  <si>
+    <t>BEIJb.ST</t>
+  </si>
+  <si>
+    <t>TPK.L</t>
+  </si>
+  <si>
+    <t>BMWG.DE</t>
+  </si>
+  <si>
+    <t>PKN.WA</t>
+  </si>
+  <si>
+    <t>CPG.L</t>
+  </si>
+  <si>
+    <t>SOON.S</t>
+  </si>
+  <si>
+    <t>BAER.S</t>
+  </si>
+  <si>
+    <t>DPWGn.DE</t>
+  </si>
+  <si>
+    <t>EXPN.L</t>
+  </si>
+  <si>
+    <t>AFXG.DE</t>
+  </si>
+  <si>
+    <t>SABE.MC</t>
+  </si>
+  <si>
+    <t>AMUN.PA</t>
+  </si>
+  <si>
+    <t>MRCG.DE</t>
+  </si>
+  <si>
+    <t>VTWRn.DE</t>
+  </si>
+  <si>
+    <t>GNS.L</t>
+  </si>
+  <si>
+    <t>DIAS.MI</t>
+  </si>
+  <si>
+    <t>EQTAB.ST</t>
+  </si>
+  <si>
+    <t>MRON.L</t>
+  </si>
+  <si>
+    <t>SXS.L</t>
+  </si>
+  <si>
+    <t>SDR.L</t>
+  </si>
+  <si>
+    <t>DOMETIC.ST</t>
+  </si>
+  <si>
+    <t>VIE.PA</t>
+  </si>
+  <si>
+    <t>ITV.L</t>
+  </si>
+  <si>
+    <t>NZYMb.CO</t>
+  </si>
+  <si>
+    <t>UTDI.DE</t>
+  </si>
+  <si>
+    <t>CARLb.CO</t>
+  </si>
+  <si>
+    <t>NEKG.DE</t>
+  </si>
+  <si>
+    <t>BASFn.DE</t>
+  </si>
+  <si>
+    <t>FLTRF.I</t>
+  </si>
+  <si>
+    <t>GL9.I</t>
+  </si>
+  <si>
+    <t>ABBN.S</t>
+  </si>
+  <si>
+    <t>ITRK.L</t>
+  </si>
+  <si>
+    <t>SMDS.L</t>
+  </si>
+  <si>
+    <t>VERB.VI</t>
+  </si>
+  <si>
+    <t>UN01.DE</t>
+  </si>
+  <si>
+    <t>FPE3_p.DE</t>
+  </si>
+  <si>
+    <t>SGOB.PA</t>
+  </si>
+  <si>
+    <t>NIBEb.ST</t>
+  </si>
+  <si>
+    <t>SIKA.S</t>
+  </si>
+  <si>
+    <t>HAYS.L</t>
+  </si>
+  <si>
+    <t>DANO.PA</t>
+  </si>
+  <si>
+    <t>FIN.S</t>
+  </si>
+  <si>
+    <t>HWDN.L</t>
+  </si>
+  <si>
+    <t>BEZG.L</t>
+  </si>
+  <si>
+    <t>WALLb.ST</t>
+  </si>
+  <si>
+    <t>IPN.PA</t>
+  </si>
+  <si>
+    <t>DNB.OL</t>
+  </si>
+  <si>
+    <t>KBX.DE</t>
+  </si>
+  <si>
+    <t>AHT.L</t>
+  </si>
+  <si>
+    <t>JMAT.L</t>
+  </si>
+  <si>
+    <t>DTGGe.DE</t>
+  </si>
+  <si>
+    <t>AMBUb.CO</t>
+  </si>
+  <si>
+    <t>SGSN.S</t>
+  </si>
+  <si>
+    <t>SIM.CO</t>
+  </si>
+  <si>
+    <t>VOES.VI</t>
+  </si>
+  <si>
+    <t>ALEP.WA</t>
+  </si>
+  <si>
+    <t>ASRNL.AS</t>
+  </si>
+  <si>
+    <t>SJP.L</t>
+  </si>
+  <si>
+    <t>HNKG_p.DE</t>
+  </si>
+  <si>
+    <t>PZU.WA</t>
+  </si>
+  <si>
+    <t>AVANZ.ST</t>
+  </si>
+  <si>
+    <t>GFTU_u.L</t>
+  </si>
+  <si>
+    <t>CHRH.CO</t>
+  </si>
+  <si>
+    <t>FLUI.MC</t>
+  </si>
+  <si>
+    <t>RILBA.CO</t>
+  </si>
+  <si>
+    <t>PRY.MI</t>
+  </si>
+  <si>
+    <t>AALB.AS</t>
+  </si>
+  <si>
+    <t>EMSN.S</t>
+  </si>
+  <si>
+    <t>PST.MI</t>
+  </si>
+  <si>
+    <t>SIEGn.DE</t>
+  </si>
+  <si>
+    <t>DPH.L</t>
+  </si>
+  <si>
+    <t>AUTOA.L</t>
+  </si>
+  <si>
+    <t>SOGN.PA</t>
+  </si>
+  <si>
+    <t>ELIS.PA</t>
+  </si>
+  <si>
+    <t>QLT.L</t>
+  </si>
+  <si>
+    <t>EXHO.PA</t>
+  </si>
+  <si>
+    <t>EPIRa.ST</t>
+  </si>
+  <si>
+    <t>BPTB.L</t>
+  </si>
+  <si>
+    <t>KESKOB.HE</t>
+  </si>
+  <si>
+    <t>WLN.PA</t>
+  </si>
+  <si>
+    <t>EVTG.DE</t>
+  </si>
+  <si>
+    <t>FBK.MI</t>
+  </si>
+  <si>
+    <t>LLOY.L</t>
+  </si>
+  <si>
+    <t>VLOF.PA</t>
+  </si>
+  <si>
+    <t>TKWY.AS</t>
+  </si>
+  <si>
+    <t>PRU.L</t>
+  </si>
+  <si>
+    <t>LEGD.PA</t>
+  </si>
+  <si>
+    <t>LGEN.L</t>
+  </si>
+  <si>
+    <t>ZALG.DE</t>
+  </si>
+  <si>
+    <t>NHY.OL</t>
+  </si>
+  <si>
+    <t>WEIR.L</t>
+  </si>
+  <si>
+    <t>NWG.L</t>
+  </si>
+  <si>
+    <t>ATOS.PA</t>
+  </si>
+  <si>
+    <t>BIOX.PA</t>
+  </si>
+  <si>
+    <t>NOVOb.CO</t>
+  </si>
+  <si>
+    <t>FER.MC</t>
+  </si>
+  <si>
+    <t>DSMN.AS</t>
+  </si>
+  <si>
+    <t>PHNX.L</t>
+  </si>
+  <si>
+    <t>VCTX.L</t>
+  </si>
+  <si>
+    <t>ADML.L</t>
+  </si>
+  <si>
+    <t>VACN.S</t>
+  </si>
+  <si>
+    <t>KYGa.I</t>
+  </si>
+  <si>
+    <t>IMI.L</t>
+  </si>
+  <si>
+    <t>HPOLb.ST</t>
+  </si>
+  <si>
+    <t>CRH.I</t>
+  </si>
+  <si>
+    <t>GEBN.S</t>
+  </si>
+  <si>
+    <t>HEIG.DE</t>
+  </si>
+  <si>
+    <t>ESLX.PA</t>
+  </si>
+  <si>
+    <t>PEO.WA</t>
+  </si>
+  <si>
+    <t>GN.CO</t>
+  </si>
+  <si>
+    <t>ASSAb.ST</t>
+  </si>
+  <si>
+    <t>BNPP.PA</t>
+  </si>
+  <si>
+    <t>HFGG.DE</t>
+  </si>
+  <si>
+    <t>KNIN.S</t>
+  </si>
+  <si>
+    <t>ADDTb.ST</t>
+  </si>
+  <si>
+    <t>GIVN.S</t>
+  </si>
+  <si>
+    <t>DPLM.L</t>
+  </si>
+  <si>
+    <t>OCDO.L</t>
+  </si>
+  <si>
+    <t>KNEBV.HE</t>
+  </si>
+  <si>
+    <t>VOLVb.ST</t>
+  </si>
+  <si>
+    <t>BKGH.L</t>
+  </si>
+  <si>
+    <t>EDF.PA</t>
+  </si>
+  <si>
+    <t>ANTO.L</t>
+  </si>
+  <si>
+    <t>INRN.S</t>
+  </si>
+  <si>
+    <t>PRX.AS</t>
+  </si>
+  <si>
+    <t>1COV.DE</t>
+  </si>
+  <si>
+    <t>LXSG.DE</t>
+  </si>
+  <si>
+    <t>KGH.WA</t>
+  </si>
+  <si>
+    <t>SMIN.L</t>
+  </si>
+  <si>
+    <t>KSP.I</t>
+  </si>
+  <si>
+    <t>EVDG.DE</t>
+  </si>
+  <si>
+    <t>VOLCARb.ST</t>
+  </si>
+  <si>
+    <t>ROCKb.CO</t>
+  </si>
+  <si>
+    <t>MIPS.ST</t>
+  </si>
+  <si>
+    <t>ENR1n.DE</t>
+  </si>
+  <si>
+    <t>LPPP.WA</t>
+  </si>
+  <si>
+    <t>SINCH.ST</t>
+  </si>
+  <si>
+    <t>BDEV.L</t>
+  </si>
+  <si>
+    <t>EPED.PA</t>
+  </si>
+  <si>
+    <t>QTCOM.HE</t>
+  </si>
+  <si>
+    <t>TEMN.S</t>
+  </si>
+  <si>
+    <t>ALSO.PA</t>
+  </si>
+  <si>
+    <t>SCHN.PA</t>
+  </si>
+  <si>
+    <t>RKT.L</t>
+  </si>
+  <si>
+    <t>GAW.L</t>
+  </si>
+  <si>
+    <t>HIK.L</t>
+  </si>
+  <si>
+    <t>EKTAb.ST</t>
+  </si>
+  <si>
+    <t>ESSITYb.ST</t>
+  </si>
+  <si>
+    <t>HUSQb.ST</t>
+  </si>
+  <si>
+    <t>FERG.L</t>
+  </si>
+  <si>
+    <t>GJFG.OL</t>
+  </si>
+  <si>
+    <t>AVV.L</t>
+  </si>
+  <si>
+    <t>BMEB.L</t>
+  </si>
+  <si>
+    <t>TW.L</t>
+  </si>
+  <si>
+    <t>G1AG.DE</t>
+  </si>
+  <si>
+    <t>LIGHT.AS</t>
+  </si>
+  <si>
+    <t>MOCORP.HE</t>
+  </si>
+  <si>
+    <t>DHER.DE</t>
+  </si>
+  <si>
+    <t>WISEa.L</t>
+  </si>
+  <si>
+    <t>ONT.L</t>
+  </si>
+  <si>
+    <t>MAERSKb.CO</t>
+  </si>
+  <si>
+    <t>KGX.DE</t>
+  </si>
+  <si>
+    <t>PSN.L</t>
+  </si>
+  <si>
+    <t>VALMT.HE</t>
+  </si>
+  <si>
+    <t>ALFA.ST</t>
+  </si>
+  <si>
+    <t>TOM.OL</t>
+  </si>
+  <si>
+    <t>SAND.ST</t>
+  </si>
+  <si>
+    <t>BWY.L</t>
+  </si>
+  <si>
+    <t>NDASE.ST</t>
+  </si>
+  <si>
+    <t>ARGX.BR</t>
+  </si>
+  <si>
+    <t>VTYV.L</t>
+  </si>
+  <si>
+    <t>ATCOa.ST</t>
+  </si>
+  <si>
+    <t>THULE.ST</t>
+  </si>
+  <si>
+    <t>SGREN.MC</t>
+  </si>
+  <si>
+    <t>SKFb.ST</t>
+  </si>
+  <si>
+    <t>WRT1V.HE</t>
+  </si>
+  <si>
+    <t>RAAG.DE</t>
   </si>
 </sst>
 </file>
@@ -210,12 +2015,19 @@
     <numFmt numFmtId="168" formatCode="\+#,##0.00;\-#,##0.00;#,##0.00;&quot;--&quot;"/>
     <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -230,8 +2042,22 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +2068,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFA6A6A6"/>
         <bgColor rgb="FFA6A6A6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -462,116 +2300,126 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{FEEC37C3-BEB9-2540-8859-3E1F2936F565}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -933,32 +2781,32 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="40" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="40" t="s">
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="42"/>
-      <c r="K11" s="40" t="s">
+      <c r="J11" s="46"/>
+      <c r="K11" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="40" t="s">
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="41"/>
-      <c r="P11" s="42"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="46"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -8281,7 +10129,7 @@
   </sheetPr>
   <dimension ref="A1:D222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A207" sqref="A207"/>
     </sheetView>
   </sheetViews>
@@ -11413,4 +13261,3040 @@
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.75"/>
   <pageSetup fitToHeight="0" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655BB6B5-8E8E-2F4F-A7B9-16E5542D2C14}">
+  <dimension ref="A1:A601"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.83203125" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="42" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="43" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="42" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="43" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="42" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="43" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="42" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="43" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="42" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="43" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="42" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="42" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="43" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="42" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="42" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="43" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="42" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="42" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="42" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="43" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="43" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="42" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="43" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="42" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="42" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="43" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="42" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="43" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="43" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="42" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="43" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="42" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="43" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="43" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="42" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="43" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="42" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="43" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="42" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="42" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="43" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="42" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="43" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="43" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="42" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="43" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="42" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="43" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="42" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="43" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="42" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="43" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="43" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="43" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="42" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="43" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="42" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="43" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="42" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="43" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="42" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="43" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="42" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="43" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="42" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" s="43" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" s="42" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="43" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" s="42" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" s="43" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" s="42" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" s="43" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" s="42" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" s="43" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" s="42" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" s="43" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" s="42" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" s="43" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" s="42" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" s="43" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" s="42" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" s="43" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" s="42" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" s="43" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" s="42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" s="43" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" s="42" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" s="43" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" s="42" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" s="43" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" s="42" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" s="43" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" s="42" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" s="43" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" s="42" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" s="43" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" s="42" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" s="43" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" s="42" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" s="43" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" s="42" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" s="43" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" s="42" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" s="43" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" s="42" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" s="43" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" s="42" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" s="43" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" s="42" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" s="43" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" s="42" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" s="43" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" s="42" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" s="43" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" s="42" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" s="43" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" s="42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" s="43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" s="42" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" s="43" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" s="42" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" s="43" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" s="42" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" s="43" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" s="42" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" s="43" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" s="42" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" s="43" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261" s="42" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262" s="43" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263" s="42" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264" s="43" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" s="42" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" s="43" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" s="42" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268" s="43" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269" s="42" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270" s="43" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271" s="42" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272" s="43" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273" s="42" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274" s="43" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275" s="42" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276" s="43" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277" s="42" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278" s="43" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279" s="42" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280" s="43" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" s="42" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282" s="43" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283" s="42" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284" s="43" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285" s="42" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286" s="43" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" s="42" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288" s="43" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289" s="42" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" s="43" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291" s="42" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" s="43" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" s="42" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294" s="43" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295" s="42" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296" s="43" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297" s="42" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298" s="43" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299" s="42" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" s="43" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301" s="42" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302" s="43" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303" s="42" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304" s="43" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" s="42" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" s="43" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" s="42" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308" s="43" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" s="42" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" s="43" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" s="42" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312" s="43" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" s="42" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314" s="43" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315" s="42" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" s="43" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" s="42" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318" s="43" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319" s="42" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320" s="43" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" s="42" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" s="43" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" s="42" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" s="43" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" s="42" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326" s="43" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" s="42" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328" s="43" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" s="42" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330" s="43" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331" s="42" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332" s="43" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333" s="42" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334" s="43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335" s="42" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336" s="43" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337" s="42" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338" s="43" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339" s="42" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340" s="43" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341" s="42" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342" s="43" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A343" s="42" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344" s="43" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345" s="42" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A346" s="43" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347" s="42" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348" s="43" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A349" s="42" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A350" s="43" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A351" s="42" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A352" s="43" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353" s="42" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354" s="43" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A355" s="42" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A356" s="43" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A357" s="42" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A358" s="43" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A359" s="42" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A360" s="43" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A361" s="42" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A362" s="43" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A363" s="42" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A364" s="43" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A365" s="42" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A366" s="43" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A367" s="42" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A368" s="43" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A369" s="42" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A370" s="43" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371" s="42" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A372" s="43" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373" s="42" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A374" s="43" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A375" s="42" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A376" s="43" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377" s="42" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A378" s="43" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379" s="42" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380" s="43" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A381" s="42" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A382" s="43" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383" s="42" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A384" s="43" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385" s="42" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A386" s="43" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A387" s="42" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A388" s="43" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A389" s="42" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A390" s="43" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A391" s="42" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392" s="43" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A393" s="42" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A394" s="43" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395" s="42" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A396" s="43" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A397" s="42" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A398" s="43" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A399" s="42" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A400" s="43" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401" s="42" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A402" s="43" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A403" s="42" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A404" s="43" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A405" s="42" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A406" s="43" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A407" s="42" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A408" s="43" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A409" s="42" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A410" s="43" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A411" s="42" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A412" s="43" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413" s="42" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A414" s="43" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A415" s="42" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A416" s="43" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A417" s="42" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A418" s="43" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419" s="42" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A420" s="43" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A421" s="42" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A422" s="43" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A423" s="42" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A424" s="43" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A425" s="42" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A426" s="43" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A427" s="42" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A428" s="43" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A429" s="42" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A430" s="43" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A431" s="42" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A432" s="43" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="42" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="43" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="42" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="43" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="42" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="43" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="42" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="43" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="42" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="43" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="42" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="43" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="42" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="43" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="42" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="43" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="42" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A450" s="43" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A451" s="42" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A452" s="43" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A453" s="42" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A454" s="43" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455" s="42" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A456" s="43" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A457" s="42" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458" s="43" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A459" s="42" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A460" s="43" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461" s="42" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462" s="43" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463" s="42" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A464" s="43" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="42" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="43" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="42" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="43" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="42" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="43" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="42" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="43" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="42" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="43" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="42" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="43" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="42" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="43" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="42" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A480" s="43" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A481" s="42" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A482" s="43" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A483" s="42" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A484" s="43" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A485" s="42" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A486" s="43" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A487" s="42" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A488" s="43" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A489" s="42" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A490" s="43" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A491" s="42" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A492" s="43" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A493" s="42" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A494" s="43" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A495" s="42" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A496" s="43" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="42" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="43" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="42" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="43" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="42" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="43" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="42" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="43" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="42" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="43" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="42" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" s="43" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" s="42" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" s="43" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A511" s="42" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A512" s="43" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A513" s="42" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A514" s="43" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A515" s="42" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A516" s="43" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A517" s="42" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A518" s="43" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A519" s="42" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A520" s="43" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A521" s="42" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A522" s="43" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A523" s="42" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A524" s="43" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A525" s="42" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A526" s="43" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A527" s="42" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A528" s="43" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" s="42" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" s="43" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" s="42" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" s="43" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" s="42" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" s="43" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" s="42" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" s="43" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" s="42" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" s="43" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" s="42" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" s="43" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" s="42" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A542" s="43" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A543" s="42" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A544" s="43" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" s="42" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" s="43" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" s="42" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" s="43" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" s="42" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" s="43" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" s="42" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" s="43" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" s="42" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" s="43" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" s="42" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" s="43" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" s="42" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" s="43" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" s="42" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" s="43" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" s="42" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" s="43" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" s="42" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" s="43" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" s="42" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" s="43" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" s="42" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" s="43" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" s="42" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" s="43" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" s="42" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A572" s="43" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A573" s="42" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A574" s="43" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A575" s="42" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A576" s="43" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A577" s="42" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A578" s="43" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A579" s="42" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A580" s="43" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A581" s="42" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A582" s="43" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A583" s="42" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A584" s="43" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A585" s="42" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A586" s="43" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A587" s="42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A588" s="43" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A589" s="42" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A590" s="43" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A591" s="42" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A592" s="43" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A593" s="42" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A594" s="43" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A595" s="42" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A596" s="43" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A597" s="42" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A598" s="43" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A599" s="42" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A600" s="43" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A601" s="42" t="s">
+        <v>636</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C683FE-91C4-1848-AD82-141B79157724}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>